--- a/results/world-map.xlsx
+++ b/results/world-map.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\MyPapers\COVID-19-ITL\covid19-in-india\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\covid-19-india\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9533A9E-6FF3-4E69-9C7F-4A1C340E54CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A166EF3-062C-48DC-8FBB-2616C0AB0474}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{D000C453-0F32-4AB0-B06F-FEBD0FFE8F5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t>India</t>
   </si>
@@ -251,9 +249,6 @@
     <t>Cameroon</t>
   </si>
   <si>
-    <t>Democratic Republic of Congo</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
@@ -486,6 +481,72 @@
   </si>
   <si>
     <t>Zimbabwe</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Cote d'Ivoire</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Peru</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Saudi Arabia</t>
+  </si>
+  <si>
+    <t>Syria</t>
+  </si>
+  <si>
+    <t>Brazil</t>
   </si>
 </sst>
 </file>
@@ -523,14 +584,14 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -618,8 +679,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{915A9C48-DC6C-4B24-86E6-566E21BDC219}" name="Table2" displayName="Table2" ref="A1:B150" totalsRowShown="0">
-  <autoFilter ref="A1:B150" xr:uid="{E71F2AC1-6D2D-4537-B227-A7F0796C6B58}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{915A9C48-DC6C-4B24-86E6-566E21BDC219}" name="Table2" displayName="Table2" ref="A1:B171" totalsRowShown="0">
+  <autoFilter ref="A1:B171" xr:uid="{E71F2AC1-6D2D-4537-B227-A7F0796C6B58}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{323DEC27-E25E-4072-B536-5500B35FC2BA}" name="Country"/>
     <tableColumn id="2" xr3:uid="{FA16C93E-43B7-4EEA-A03E-50E4C49A2361}" name="Total Predicted Cases" dataDxfId="0"/>
@@ -938,20 +999,20 @@
     <we:reference id="wa103304320" version="1.1.0.0" store="wa103304320" storeType="OMEX"/>
   </we:alternateReferences>
   <we:properties>
+    <we:property name="backgroundColor" value="&quot;#d9d9d9&quot;"/>
+    <we:property name="colorMax" value="&quot;#FC0000&quot;"/>
+    <we:property name="colorMid" value="&quot;#FFFF00&quot;"/>
+    <we:property name="colorMin" value="&quot;#078709&quot;"/>
+    <we:property name="dataLabels" value="false"/>
+    <we:property name="iState" value="&quot;0&quot;"/>
+    <we:property name="iValue" value="&quot;1&quot;"/>
+    <we:property name="legend" value="&quot;1&quot;"/>
+    <we:property name="mapType" value="&quot;world_mill&quot;"/>
+    <we:property name="scale" value="null"/>
+    <we:property name="theme" value="&quot;custom&quot;"/>
+    <we:property name="title" value="&quot;Total Predicted Cases&quot;"/>
     <we:property name="transX" value="null"/>
     <we:property name="transY" value="null"/>
-    <we:property name="scale" value="null"/>
-    <we:property name="dataLabels" value="false"/>
-    <we:property name="legend" value="&quot;1&quot;"/>
-    <we:property name="theme" value="&quot;custom&quot;"/>
-    <we:property name="title" value="&quot;Total Predicted Cases&quot;"/>
-    <we:property name="iState" value="&quot;0&quot;"/>
-    <we:property name="iValue" value="&quot;1&quot;"/>
-    <we:property name="mapType" value="&quot;world_mill&quot;"/>
-    <we:property name="colorMin" value="&quot;#078709&quot;"/>
-    <we:property name="colorMid" value="&quot;#FFFF00&quot;"/>
-    <we:property name="colorMax" value="&quot;#FC0000&quot;"/>
-    <we:property name="backgroundColor" value="&quot;#d9d9d9&quot;"/>
   </we:properties>
   <we:bindings>
     <we:binding id="binding1" type="matrix" appref="{EA2909AE-FFA0-4C48-84CC-629F142A18DB}"/>
@@ -974,10 +1035,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{785BD37C-00EB-42A3-82AC-42C5100FCA27}">
-  <dimension ref="A1:B150"/>
+  <dimension ref="A1:B171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AK6" sqref="AK6"/>
+      <selection activeCell="AJ13" sqref="AJ13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -997,15 +1058,15 @@
       <c r="A2" t="s">
         <v>55</v>
       </c>
-      <c r="B2">
-        <v>2.0690553432354477</v>
+      <c r="B2" s="1">
+        <v>1.9912260665357158</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>56</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1">
         <v>1.3979400086720377</v>
       </c>
     </row>
@@ -1013,1176 +1074,1344 @@
       <c r="A4" t="s">
         <v>57</v>
       </c>
-      <c r="B4">
-        <v>4.3437847936507765</v>
+      <c r="B4" s="1">
+        <v>4.9397416562315151</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>58</v>
       </c>
-      <c r="B5">
-        <v>2.9539747446492464</v>
+      <c r="B5" s="1">
+        <v>2.9350227705509413</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>3.7652959296980564</v>
+      <c r="B6" s="1">
+        <v>4.5748599224626423</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>59</v>
-      </c>
-      <c r="B7">
-        <v>3.6567381446309426</v>
+        <v>150</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.9868778317249642</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>60</v>
-      </c>
-      <c r="B8">
-        <v>1.5567640807449932</v>
+        <v>59</v>
+      </c>
+      <c r="B8" s="1">
+        <v>4.0174085570907208</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9">
-        <v>3.8295963220002909</v>
+        <v>60</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.3617278360175928</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>4.1685388614786074</v>
+        <v>2</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3.8310703218364832</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B11">
-        <v>3.2647946982233722</v>
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>4.193494905983175</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="B12">
-        <v>4.4762449561569886</v>
+        <v>61</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.2969816565116092</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>4.8850936165920933</v>
+        <v>62</v>
+      </c>
+      <c r="B13" s="1">
+        <v>1.1139433524267899</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14">
-        <v>4.4761143850312362</v>
+        <v>8</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.8397618395949209</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B15">
-        <v>2.9393922506218599</v>
+        <v>151</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1.7993405494535817</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16">
-        <v>4.1632960577617766</v>
+        <v>63</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.60205999133146804</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B17">
-        <v>3.9802284045006</v>
+        <v>64</v>
+      </c>
+      <c r="B17" s="1">
+        <v>2.8014037100174209</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18">
-        <v>2.364057020526602</v>
+        <v>9</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4.295291870555487</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19">
-        <v>3.31091893104441</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="1">
+        <v>5.0291166311431956</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20">
-        <v>3.6793370305207937</v>
+        <v>65</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1.8976270912904414</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21">
-        <v>1.2304489220516321</v>
+        <v>66</v>
+      </c>
+      <c r="B21" s="1">
+        <v>3.5164753127631196</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22">
-        <v>2.1367205966214131</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="1">
+        <v>5.3640875450598564</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23">
-        <v>0.7781510664236656</v>
+        <v>67</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1.2304489213780652</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>70</v>
-      </c>
-      <c r="B24">
-        <v>4.4763319817701683</v>
+        <v>152</v>
+      </c>
+      <c r="B24" s="1">
+        <v>2.067839915651116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25">
-        <v>5.1334603405440724</v>
+        <v>153</v>
+      </c>
+      <c r="B25" s="1">
+        <v>1.900200578874921</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26">
-        <v>4.5043982407593806</v>
+        <v>68</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2.138526383683053</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27">
-        <v>5.1310967629751003</v>
+        <v>69</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.77815125038364363</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>1</v>
-      </c>
-      <c r="B28">
-        <v>4.9043741901925983</v>
+        <v>70</v>
+      </c>
+      <c r="B28" s="1">
+        <v>1.2787536010349021</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29">
-        <v>3.2095150145428026</v>
+        <v>12</v>
+      </c>
+      <c r="B29" s="1">
+        <v>5.1068569110341659</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30">
-        <v>3.9212058879966336</v>
+        <v>13</v>
+      </c>
+      <c r="B30" s="1">
+        <v>4.4972984465511647</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31">
-        <v>2.3138672203691533</v>
+        <v>14</v>
+      </c>
+      <c r="B31" s="1">
+        <v>5.1677001255030008</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32">
-        <v>6.2023537634714305</v>
+        <v>1</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4.9252937679195377</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>75</v>
-      </c>
-      <c r="B33">
-        <v>3.0048187694387178</v>
+        <v>154</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4.1226611103815589</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34">
-        <v>0.55940720886581741</v>
+        <v>71</v>
+      </c>
+      <c r="B34" s="1">
+        <v>3.3758065066437228</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35">
-        <v>3.1462971852228603</v>
+        <v>72</v>
+      </c>
+      <c r="B35" s="1">
+        <v>2.3138672203691315</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B36">
-        <v>3.9072091954500836</v>
+        <v>73</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2.0293837776852097</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37">
-        <v>5.2684877554423775</v>
+        <v>74</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2.9484171038883864</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38">
-        <v>3.0218516391389372</v>
+        <v>75</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1.1787668241371152</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39">
-        <v>1.1760912590559969</v>
+        <v>155</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1.8388490907372552</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>17</v>
-      </c>
-      <c r="B40">
-        <v>4.2929665711850262</v>
+        <v>76</v>
+      </c>
+      <c r="B40" s="1">
+        <v>2.9743533849510744</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B41">
-        <v>3.7878145670630232</v>
+        <v>15</v>
+      </c>
+      <c r="B41" s="1">
+        <v>3.9247591097551653</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42">
-        <v>3.800531521138335</v>
+        <v>16</v>
+      </c>
+      <c r="B42" s="1">
+        <v>5.257059578916957</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>20</v>
-      </c>
-      <c r="B43">
-        <v>5.2754910254325642</v>
+        <v>77</v>
+      </c>
+      <c r="B43" s="1">
+        <v>3.0312232466242857</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>80</v>
-      </c>
-      <c r="B44">
-        <v>3.2294352709259129</v>
+        <v>78</v>
+      </c>
+      <c r="B44" s="1">
+        <v>1.1760912592006878</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>21</v>
-      </c>
-      <c r="B45">
-        <v>3.8519454004046461</v>
+        <v>17</v>
+      </c>
+      <c r="B45" s="1">
+        <v>4.0480679440828506</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46">
-        <v>0.89855159867834078</v>
+        <v>18</v>
+      </c>
+      <c r="B46" s="1">
+        <v>4.12988263216827</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>82</v>
-      </c>
-      <c r="B47">
-        <v>4.4762304501925616</v>
+        <v>19</v>
+      </c>
+      <c r="B47" s="1">
+        <v>3.9218246706784972</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48">
-        <v>5.1554698946245416</v>
+        <v>156</v>
+      </c>
+      <c r="B48" s="1">
+        <v>5.7957040145299832</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49">
-        <v>2.063106238166116</v>
+        <v>157</v>
+      </c>
+      <c r="B49" s="1">
+        <v>1.57978106742845</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>23</v>
-      </c>
-      <c r="B50">
-        <v>5.4190137131056373</v>
+        <v>20</v>
+      </c>
+      <c r="B50" s="1">
+        <v>5.3803976226989372</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51">
-        <v>2.9888014824199809</v>
+        <v>79</v>
+      </c>
+      <c r="B51" s="1">
+        <v>3.3021175472504032</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>85</v>
-      </c>
-      <c r="B52">
-        <v>2.1172712956557644</v>
+        <v>158</v>
+      </c>
+      <c r="B52" s="1">
+        <v>2.0899051114393981</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>86</v>
-      </c>
-      <c r="B53">
-        <v>0.95424250943932487</v>
+        <v>21</v>
+      </c>
+      <c r="B53" s="1">
+        <v>3.9963981022049015</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B54" s="1">
-        <v>6.011519603186529</v>
+        <v>1.2304675772418405</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>24</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1">
-        <v>3.3438023331616549</v>
+        <v>1.0791812460476249</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>22</v>
       </c>
       <c r="B56" s="1">
-        <v>1.2652922606898738</v>
+        <v>5.1703880274486567</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B57" s="1">
-        <v>0.95424250925035559</v>
+        <v>2.0623332732025363</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>90</v>
+        <v>159</v>
       </c>
       <c r="B58" s="1">
-        <v>2.1492191126588542</v>
+        <v>4.9180418028082249</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>91</v>
+        <v>23</v>
       </c>
       <c r="B59" s="1">
-        <v>2.0515878318916312</v>
+        <v>5.4596164188915761</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B60" s="1">
-        <v>2.8420908458734493</v>
+        <v>3.0808986648543737</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>160</v>
       </c>
       <c r="B61" s="1">
-        <v>3.3630705995104768</v>
+        <v>2.3919639262808357</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="B62" s="1">
-        <v>4.3647189969143296</v>
+        <v>2.1172712956557644</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="B63" s="1">
-        <v>5.3142958499996826</v>
+        <v>0.9542425094416459</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1">
-        <v>4.3159261584446327</v>
+        <v>2.4099333935887217</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B65" s="1">
-        <v>4.9984058428337859</v>
+        <v>3.4760064161298514</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1">
-        <v>3.1708482036433092</v>
+        <v>1.2304489213782739</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B67" s="1">
-        <v>3.2526103405673732</v>
+        <v>0.95424250943928257</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>29</v>
+        <v>89</v>
       </c>
       <c r="B68" s="1">
-        <v>4.25593867342495</v>
+        <v>2.1492191126553801</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B69" s="1">
-        <v>5.3866744607180603</v>
+        <v>1.8871625030365793</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B70" s="1">
-        <v>2.4440482629111568</v>
+        <v>4.3407632384054926</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B71" s="1">
-        <v>2.661247273774384</v>
+        <v>3.3616723819688699</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>30</v>
+        <v>161</v>
       </c>
       <c r="B72" s="1">
-        <v>4.0233978128631858</v>
+        <v>4.1108746094636848</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B73" s="1">
-        <v>3.8448402440983589</v>
+        <v>4.4825929397766693</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="B74" s="1">
-        <v>2.6072484828881937</v>
+        <v>2.4871383754771865</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="B75" s="1">
-        <v>2.9251504371924089</v>
+        <v>5.2521172615465943</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>99</v>
+        <v>27</v>
       </c>
       <c r="B76" s="1">
-        <v>1.1146936132256655</v>
+        <v>4.5290340264179267</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B77" s="1">
-        <v>3.9182834800077542</v>
+        <v>5.1035785444477648</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B78" s="1">
-        <v>1.2304500123489805</v>
+        <v>3.3756609686638197</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B79" s="1">
-        <v>2.828015064223977</v>
+        <v>3.2691931475220826</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="B80" s="1">
-        <v>2.2101709500390698</v>
+        <v>4.2565370025140492</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>103</v>
+        <v>3</v>
       </c>
       <c r="B81" s="1">
-        <v>3.6208234800796806</v>
+        <v>5.3999772797641006</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="B82" s="1">
-        <v>1.1139453715121397</v>
+        <v>2.9908518140394826</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B83" s="1">
-        <v>1.9138138523837167</v>
+        <v>2.5779859174848481</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
       <c r="B84" s="1">
-        <v>3.0293837776852097</v>
+        <v>2.6886200697108857</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B85" s="1">
-        <v>3.5492338167891155</v>
+        <v>4.2521584236937677</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1">
-        <v>2.9533825704909562</v>
+        <v>2.9393356159552009</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
       <c r="B87" s="1">
-        <v>3.9362223787753123</v>
+        <v>3.0610389413118191</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1">
-        <v>1.968482948553935</v>
+        <v>1.1139433520349424</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B89" s="1">
-        <v>4.3272476689403367</v>
+        <v>4.0315015845824052</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B90" s="1">
-        <v>6.1748518881305383</v>
+        <v>1.2304489213782774</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B91" s="1">
-        <v>2.3263358609287512</v>
+        <v>2.869149440869001</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="B92" s="1">
-        <v>5</v>
+        <v>2.4301205118085161</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B93" s="1">
-        <v>3.2286418210314944</v>
+        <v>1.7781941322461341</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="B94" s="1">
-        <v>2.1643528557844371</v>
+        <v>1.1139433523068532</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="B95" s="1">
-        <v>1.568201724066995</v>
+        <v>1.9141478545023534</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B96" s="1">
-        <v>4.4762304501925092</v>
+        <v>3.227154359593055</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>115</v>
+        <v>33</v>
       </c>
       <c r="B97" s="1">
-        <v>0.7781512501683856</v>
+        <v>3.5856304639693835</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="B98" s="1">
-        <v>1.0000000000834279</v>
+        <v>3.0068941827304432</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="B99" s="1">
-        <v>2.5233713802351971</v>
+        <v>4.6190516970598896</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>37</v>
+        <v>107</v>
       </c>
       <c r="B100" s="1">
-        <v>3.8564516152703825</v>
+        <v>1.9797600656557932</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>118</v>
+        <v>35</v>
       </c>
       <c r="B101" s="1">
-        <v>1.1461280358110111</v>
+        <v>4.0590701646663794</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="B102" s="1">
-        <v>1.2041200122321625</v>
+        <v>2.99586721396247</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>120</v>
+        <v>36</v>
       </c>
       <c r="B103" s="1">
-        <v>2.9088169806270598</v>
+        <v>6</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B104" s="1">
-        <v>1.6559485680687189</v>
+        <v>3.3392865194850407</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
-        <v>38</v>
+        <v>164</v>
       </c>
       <c r="B105" s="1">
-        <v>4.7715339634411844</v>
+        <v>2.6503075231319362</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="B106" s="1">
-        <v>3.8319337304667456</v>
+        <v>2.1643528557844371</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="B107" s="1">
-        <v>0.95424250943932487</v>
+        <v>1.568201724066995</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="B108" s="1">
-        <v>3.0461047872460387</v>
+        <v>1.0791812525776385</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>165</v>
       </c>
       <c r="B109" s="1">
-        <v>2.6222140229662951</v>
+        <v>1.8755952778898861</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
-        <v>54</v>
+        <v>114</v>
       </c>
       <c r="B110" s="1">
-        <v>3.9889600703903381</v>
+        <v>0.77815125038361832</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>41</v>
+        <v>115</v>
       </c>
       <c r="B111" s="1">
-        <v>4.7301267285283384</v>
+        <v>1.000000000000056</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
-        <v>42</v>
+        <v>116</v>
       </c>
       <c r="B112" s="1">
-        <v>3.610234175334389</v>
+        <v>2.5907076785005243</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B113" s="1">
-        <v>4.6008690045900282</v>
+        <v>3.8443065731580912</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="B114" s="1">
-        <v>3.8628303536278517</v>
+        <v>1.1461280356782271</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="B115" s="1">
-        <v>4.5682131739656251</v>
+        <v>1.2041199826544358</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B116" s="1">
-        <v>2.8589984305957197</v>
+        <v>2.8626439590198829</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
-        <v>126</v>
+        <v>166</v>
       </c>
       <c r="B117" s="1">
-        <v>3.0995921746374968</v>
+        <v>6.2565894728284475</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
       <c r="B118" s="1">
-        <v>4.3020154507798951</v>
+        <v>1.0791812460476249</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="B119" s="1">
-        <v>5.3861406341893243</v>
+        <v>4.755685833665285</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="B120" s="1">
-        <v>3.2808059283936668</v>
+        <v>3.9277431500407571</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B121" s="1">
-        <v>4.4776642969396798</v>
+        <v>1.7331980707430896</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B122" s="1">
-        <v>2.5514499979728753</v>
+        <v>3.0520747773156991</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
-        <v>129</v>
+        <v>40</v>
       </c>
       <c r="B123" s="1">
-        <v>2.6803446085075455</v>
+        <v>3.5796143568705663</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B124" s="1">
-        <v>4.1120951274813775</v>
+        <v>4.7922639320171596</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>130</v>
+        <v>167</v>
       </c>
       <c r="B125" s="1">
-        <v>0.95424250943820099</v>
+        <v>4</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>131</v>
+        <v>42</v>
       </c>
       <c r="B126" s="1">
-        <v>3.8912003409556868</v>
+        <v>4.052735963560794</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="B127" s="1">
-        <v>3.2909286501070651</v>
+        <v>0.84509804001425681</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B128" s="1">
-        <v>4.548701476797218</v>
+        <v>4.593841959653874</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B129" s="1">
-        <v>1.9060396913506032</v>
+        <v>3.8370172488462129</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>134</v>
+        <v>44</v>
       </c>
       <c r="B130" s="1">
-        <v>7.4255200918421762</v>
+        <v>4.5801963244330546</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="B131" s="1">
-        <v>1.6532125137753437</v>
+        <v>2.6217933733004894</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="B132" s="1">
-        <v>1.9912260760055742</v>
+        <v>3.1388355649849524</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B133" s="1">
-        <v>3.4313637641589874</v>
+        <v>4.3253774419585502</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>137</v>
+        <v>46</v>
       </c>
       <c r="B134" s="1">
-        <v>1.3834255242087079</v>
+        <v>5.6091066839380082</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B135" s="1">
-        <v>2.1236576198569481</v>
+        <v>5.6390778948478362</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>139</v>
+        <v>47</v>
       </c>
       <c r="B136" s="1">
-        <v>3.1870642091099817</v>
+        <v>4.4133529782814378</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="B137" s="1">
-        <v>5.4820851554587389</v>
+        <v>1.9912294715925258</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B138" s="1">
-        <v>2.5797835966168101</v>
+        <v>3.1953657098273593</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="B139" s="1">
-        <v>2.5729282507921765</v>
+        <v>3.1907105227532067</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B140" s="1">
-        <v>4.0229941581632636</v>
+        <v>4.2167967453544648</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="B141" s="1">
-        <v>4.4961190641022055</v>
+        <v>0.954242509439308</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>53</v>
+        <v>130</v>
       </c>
       <c r="B142" s="1">
-        <v>6.3472691325471322</v>
+        <v>4.6115375935974745</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="B143" s="1">
-        <v>3.2911737553694445</v>
+        <v>3.2902634197341221</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>144</v>
+        <v>49</v>
       </c>
       <c r="B144" s="1">
-        <v>0.88855000454108557</v>
+        <v>4.7460731781445364</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="B145" s="1">
-        <v>1.146128035678238</v>
+        <v>1.8727723981483158</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="B146" s="1">
-        <v>0.70816835078849039</v>
+        <v>1.6256874978336771</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="B147" s="1">
-        <v>7.4214412370063068</v>
+        <v>7.4626574368319307</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B148" s="1">
-        <v>2.4116197059632301</v>
+        <v>1.6532125137753437</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B149" s="1">
-        <v>1.9395192526186185</v>
+        <v>2.0742342552083901</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="B150" s="1">
-        <v>1.504880154972237</v>
+        <v>3.486020442110779</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>136</v>
+      </c>
+      <c r="B151" s="1">
+        <v>1.3617278360175928</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>137</v>
+      </c>
+      <c r="B152" s="1">
+        <v>2.0606978403536118</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>138</v>
+      </c>
+      <c r="B153" s="1">
+        <v>3.0806532035217504</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>51</v>
+      </c>
+      <c r="B154" s="1">
+        <v>5.4052775784353502</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>139</v>
+      </c>
+      <c r="B155" s="1">
+        <v>2.6328969532436459</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>140</v>
+      </c>
+      <c r="B156" s="1">
+        <v>2.4756711883244296</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>52</v>
+      </c>
+      <c r="B157" s="1">
+        <v>4.2602894361165102</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>141</v>
+      </c>
+      <c r="B158" s="1">
+        <v>3.1416929737281185</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>53</v>
+      </c>
+      <c r="B159" s="1">
+        <v>7.2391611236437798</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A160" t="s">
+        <v>142</v>
+      </c>
+      <c r="B160" s="1">
+        <v>3.3740156416960723</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>143</v>
+      </c>
+      <c r="B161" s="1">
+        <v>0.90308998699194354</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>144</v>
+      </c>
+      <c r="B162" s="1">
+        <v>1.1581241963764479</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>145</v>
+      </c>
+      <c r="B163" s="1">
+        <v>0.60227735397705473</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>146</v>
+      </c>
+      <c r="B164" s="1">
+        <v>7.4793779230408646</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>147</v>
+      </c>
+      <c r="B165" s="1">
+        <v>2.4319768111905669</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A166" t="s">
+        <v>148</v>
+      </c>
+      <c r="B166" s="1">
+        <v>1.9395192526186185</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A167" t="s">
+        <v>149</v>
+      </c>
+      <c r="B167" s="1">
+        <v>1.5089384674327317</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A168" t="s">
+        <v>171</v>
+      </c>
+      <c r="B168" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>108</v>
+      </c>
+      <c r="B169" s="1">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A170" t="s">
+        <v>31</v>
+      </c>
+      <c r="B170" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>54</v>
+      </c>
+      <c r="B171" s="1">
+        <v>5.5</v>
       </c>
     </row>
   </sheetData>
@@ -2196,7 +2425,7 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{F7C9EE02-42E1-4005-9D12-6889AFFD525C}">
       <x15:webExtensions xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
         <x15:webExtension appRef="{EA2909AE-FFA0-4C48-84CC-629F142A18DB}">
-          <xm:f>Sheet1!$A$1:$B$156</xm:f>
+          <xm:f>Sheet1!$A$1:$B$171</xm:f>
         </x15:webExtension>
       </x15:webExtensions>
     </ext>
